--- a/7rmart/src/test/resources/TestDataProject.xlsx
+++ b/7rmart/src/test/resources/TestDataProject.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\eclipse-workspace\7rmart\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\git\7rmartProject\7rmart\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C69BDE2-33D9-447D-9490-EE1F5C22E7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE23260E-26B5-4AE0-B5CF-4397FF21158D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{D81B96EA-E141-47FC-B3E5-C91FAF3FF898}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D81B96EA-E141-47FC-B3E5-C91FAF3FF898}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Username</t>
   </si>
@@ -71,9 +71,6 @@
     <t>anusha123</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
     <t>sajith</t>
   </si>
   <si>
@@ -120,6 +117,12 @@
   </si>
   <si>
     <t>salads</t>
+  </si>
+  <si>
+    <t>vishnusa</t>
+  </si>
+  <si>
+    <t>obsquara</t>
   </si>
 </sst>
 </file>
@@ -484,7 +487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4DE0EC-5D75-4A51-AEA3-BFC2DF04051D}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -504,10 +507,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -606,10 +609,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -634,21 +637,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C2">
         <v>6238545789</v>
@@ -681,19 +684,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -701,13 +704,13 @@
         <v>1234569870</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
       </c>
       <c r="E2">
         <v>90</v>
@@ -725,7 +728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3110D1-8C64-4805-A4B6-1841DAAE6C6F}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -733,12 +736,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
